--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
   <si>
     <t/>
   </si>
@@ -25,6 +25,27 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>Login_username</t>
+  </si>
+  <si>
+    <t>//input[@id='txt-username']</t>
+  </si>
+  <si>
+    <t>By.xpath</t>
+  </si>
+  <si>
+    <t>Login_password</t>
+  </si>
+  <si>
+    <t>//input[@id='txt-password']</t>
+  </si>
+  <si>
+    <t>LoginButton</t>
+  </si>
+  <si>
+    <t>//button[@id='btn-login']</t>
   </si>
 </sst>
 </file>
@@ -69,7 +90,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -84,6 +105,127 @@
       </c>
       <c r="C1" t="s" s="0">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
   <si>
     <t/>
   </si>
@@ -46,6 +46,42 @@
   </si>
   <si>
     <t>//button[@id='btn-login']</t>
+  </si>
+  <si>
+    <t>MA_FacilityDropdown</t>
+  </si>
+  <si>
+    <t>//select[@id='combo_facility']</t>
+  </si>
+  <si>
+    <t>MA_HealthcareProgramRadioButton</t>
+  </si>
+  <si>
+    <t>//input[@id='radio_program_medicaid']</t>
+  </si>
+  <si>
+    <t>MA_ClickVisitDate</t>
+  </si>
+  <si>
+    <t>//input[@id='txt_visit_date']</t>
+  </si>
+  <si>
+    <t>MA_SelectVisitDate</t>
+  </si>
+  <si>
+    <t>//td[@class='day'][normalize-space()='30']</t>
+  </si>
+  <si>
+    <t>MA_Comment</t>
+  </si>
+  <si>
+    <t>//textarea[@id='txt_comment']</t>
+  </si>
+  <si>
+    <t>MA_BookAppointment</t>
+  </si>
+  <si>
+    <t>//button[@id='btn-book-appointment']</t>
   </si>
 </sst>
 </file>
@@ -90,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -164,67 +200,78 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
   <si>
     <t/>
   </si>
@@ -82,6 +82,18 @@
   </si>
   <si>
     <t>//button[@id='btn-book-appointment']</t>
+  </si>
+  <si>
+    <t>MA_AppointmentConfirmation</t>
+  </si>
+  <si>
+    <t>//h2[normalize-space()='Appointment Confirmation']</t>
+  </si>
+  <si>
+    <t>MA_GotoHomepage</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Go to Homepage']</t>
   </si>
 </sst>
 </file>
@@ -126,7 +138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -266,12 +278,122 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
   <si>
     <t/>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>//a[normalize-space()='Go to Homepage']</t>
+  </si>
+  <si>
+    <t>CURAHealthcareMenu</t>
+  </si>
+  <si>
+    <t>//a[@id='menu-toggle']</t>
+  </si>
+  <si>
+    <t>CURAHealthcareHistory</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='History']</t>
+  </si>
+  <si>
+    <t>VerifyHistoryPage</t>
+  </si>
+  <si>
+    <t>//h2[normalize-space()='History']</t>
   </si>
 </sst>
 </file>
@@ -311,35 +329,35 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>//h2[normalize-space()='History']</t>
+  </si>
+  <si>
+    <t>LogoutButton</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Logout']</t>
   </si>
 </sst>
 </file>
@@ -362,13 +368,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>//button[@id='btn-login']</t>
+  </si>
+  <si>
+    <t>LoginErrorMessages</t>
+  </si>
+  <si>
+    <t>(//p[@class='lead text-danger'])</t>
   </si>
   <si>
     <t>MA_FacilityDropdown</t>
@@ -214,13 +220,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -236,10 +242,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
@@ -247,10 +253,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -258,10 +264,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
@@ -269,10 +275,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>6</v>
@@ -280,10 +286,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>6</v>
@@ -291,10 +297,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>6</v>
@@ -302,10 +308,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -313,10 +319,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>6</v>
@@ -335,10 +341,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>6</v>
@@ -346,10 +352,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>6</v>
@@ -357,10 +363,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
@@ -368,10 +374,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>6</v>
